--- a/DM/seed/ORACLE_DDL_GAP.xlsx
+++ b/DM/seed/ORACLE_DDL_GAP.xlsx
@@ -3,13 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EB5585-26E7-4BEC-9172-FBC7F0658748}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5EC291-5EB9-43CB-B8D5-5D86A12961EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="17020" windowHeight="10120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDL" sheetId="1" r:id="rId1"/>
+    <sheet name="SYNONYMS" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DDL!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SYNONYMS!$A$1:$C$6</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,9 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>TABLE_NM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>SYNONYMS_NM</t>
   </si>
 </sst>
 </file>
@@ -343,17 +354,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" customWidth="1"/>
-    <col min="2" max="3" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="30.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -362,6 +374,43 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{A9EA65E1-4792-46E4-87F4-66D90E54122F}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5749CBC5-63DF-43F8-B670-515C486B20F0}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.1796875" customWidth="1"/>
+    <col min="2" max="3" width="14.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C6" xr:uid="{B0334CCC-2DCF-43CF-AA99-021EBAFDB9D3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>